--- a/biology/Zoologie/Heliconius_hierax/Heliconius_hierax.xlsx
+++ b/biology/Zoologie/Heliconius_hierax/Heliconius_hierax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hierax est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,12 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius hierax a été décrit par William Chapman Hewitson en 1869 sous le nom initial d' Holiconia hierax[1].
-Sous-espèces
-Heliconius hierax hierax; présent en Équateur.
-Heliconius hierax  leveri Attal, 1999; présent en Équateur.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hierax a été décrit par William Chapman Hewitson en 1869 sous le nom initial d' Holiconia hierax.
+</t>
         </is>
       </c>
     </row>
@@ -541,85 +553,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius hierax hierax; présent en Équateur.
+Heliconius hierax  leveri Attal, 1999; présent en Équateur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hierax  est un grand papillon marron d'une envergure de 65 mm à 70 mm, au corps fin et aux longues ailes antérieures allongées à l'apex arrondi et au bord interne légèrement concave[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hierax  est un grand papillon marron d'une envergure de 65 mm à 70 mm, au corps fin et aux longues ailes antérieures allongées à l'apex arrondi et au bord interne légèrement concave.
 Le dessus présente les aires basales des ailes antérieures et postérieures rouge orangé et aux ailes antérieure une flaque jaune pâle à bords irréguliers partant du milieu du bord costal.
 Le revers, marron plus clair ne présente que la flaque jaune pâle aux ailes antérieures.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_hierax</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_hierax</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae.
 Sur les autres projets Wikimedia :
 Heliconius hierax, sur Wikimedia CommonsHeliconius hierax, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_hierax</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hierax</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hierax  est présent en Équateur et en Colombie[1],[2].
-Biotope
-Heliconius hierax  réside dans la forêt tropicale humide, entre 800 m et 1 900 m[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,10 +664,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hierax  est présent en Équateur et en Colombie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hierax  réside dans la forêt tropicale humide, entre 800 m et 1 900 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hierax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
